--- a/Data/FAQs_eng.xlsx
+++ b/Data/FAQs_eng.xlsx
@@ -6423,7 +6423,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="36.71"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col customWidth="1" min="2" max="2" width="57.43"/>
     <col customWidth="1" min="3" max="3" width="1879.71"/>
     <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
